--- a/data/output/ResureWriting.xlsx
+++ b/data/output/ResureWriting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Resume" sheetId="1" r:id="rId1"/>
@@ -328,10 +328,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,13 +620,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -659,10 +660,10 @@
       <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2"/>
